--- a/FreeRTOS/IMU_FreeRTOS/Serial Commands.xlsx
+++ b/FreeRTOS/IMU_FreeRTOS/Serial Commands.xlsx
@@ -83,10 +83,10 @@
     <t>A float value</t>
   </si>
   <si>
-    <t>Set value = 0</t>
-  </si>
-  <si>
-    <t>Get Value = 1</t>
+    <t>Get Value = 0</t>
+  </si>
+  <si>
+    <t>Set value = 1</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/FreeRTOS/IMU_FreeRTOS/Serial Commands.xlsx
+++ b/FreeRTOS/IMU_FreeRTOS/Serial Commands.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
